--- a/Predespacho/UC_datEx8_sinER.xlsx
+++ b/Predespacho/UC_datEx8_sinER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="403" documentId="11_B56FC1886469EF8145726E447CC246E429CDF5A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E54698A-7A5D-4D22-B396-708ADDA80B54}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="11_B56FC1886469EF8145726E447CC246E429CDF5A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2B5064-A961-4F68-93A4-9454DC1071F7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Flujos" sheetId="8" r:id="rId7"/>
     <sheet name="Commitment" sheetId="4" r:id="rId8"/>
     <sheet name="cmg" sheetId="12" r:id="rId9"/>
+    <sheet name="ct" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -230,9 +231,6 @@
     <t>codigo tecnologia</t>
   </si>
   <si>
-    <t>Eólica</t>
-  </si>
-  <si>
     <t>Carbón</t>
   </si>
   <si>
@@ -250,9 +248,6 @@
   <si>
     <t>Xij
 [Ohm]</t>
-  </si>
-  <si>
-    <t>Nota: Si está en Ohm la reactancia, entonces no se debe dividir en 100</t>
   </si>
   <si>
     <t>F21</t>
@@ -310,6 +305,12 @@
   </si>
   <si>
     <t>Perfil 3 PV</t>
+  </si>
+  <si>
+    <t>Costo total de operación [USD]</t>
+  </si>
+  <si>
+    <t>Nota: Si está en Ohm la reactancia, entonces no se debe dividir en 100. El código está adaptado a que la impedancia esté en Ohm.  Columnas amarillas son leidas por el código</t>
   </si>
 </sst>
 </file>
@@ -412,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,7 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
     <col min="19" max="20" width="13.140625" customWidth="1"/>
     <col min="26" max="26" width="17.140625" customWidth="1"/>
   </cols>
@@ -1088,7 +1088,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1159,7 +1159,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1220,7 +1220,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1232,7 +1232,7 @@
       <c r="U8" s="6">
         <v>1200</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1442,110 +1442,36 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" dyDescent="0.25">
-      <c r="B19" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>100000</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>80</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>80</v>
-      </c>
-      <c r="L19" s="10">
-        <v>80</v>
-      </c>
-      <c r="M19" s="10">
-        <v>2</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" dyDescent="0.25">
-      <c r="B23" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10">
-        <v>100000</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>80</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>80</v>
-      </c>
-      <c r="L23" s="10">
-        <v>80</v>
-      </c>
-      <c r="M23" s="10">
-        <v>2</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>2</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D70158-ECB3-48F3-A698-E1C05AE09764}">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" dyDescent="0.25">
+      <c r="B3" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>1050530.5599345271</v>
       </c>
     </row>
   </sheetData>
@@ -1555,20 +1481,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" dyDescent="0.25">
+    <row r="1" spans="1:7" dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" dyDescent="0.25">
+    <row r="2" spans="1:7" dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1597,7 +1523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" dyDescent="0.25">
       <c r="A3" t="s" s="5">
         <v>1</v>
       </c>
@@ -1608,19 +1534,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="G3" t="s" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" dyDescent="0.25">
+    <row r="4" spans="1:7" dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1636,17 +1562,14 @@
       <c r="E4" s="10">
         <v>300</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>220</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>100</v>
       </c>
-      <c r="I4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1662,17 +1585,14 @@
       <c r="E5" s="10">
         <v>300</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>220</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="I5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1688,17 +1608,14 @@
       <c r="E6" s="10">
         <v>300</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>220</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>100</v>
       </c>
-      <c r="I6" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1714,17 +1631,14 @@
       <c r="E7" s="10">
         <v>300</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>220</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="I7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1740,17 +1654,14 @@
       <c r="E8" s="10">
         <v>300</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>220</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>100</v>
       </c>
-      <c r="I8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1766,17 +1677,14 @@
       <c r="E9" s="10">
         <v>300</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>220</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="I9" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1792,17 +1700,14 @@
       <c r="E10" s="10">
         <v>300</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>220</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>100</v>
       </c>
-      <c r="I10" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1818,17 +1723,14 @@
       <c r="E11" s="10">
         <v>300</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>220</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>100</v>
       </c>
-      <c r="I11" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -1844,17 +1746,14 @@
       <c r="E12" s="10">
         <v>300</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>220</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>100</v>
       </c>
-      <c r="I12" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -1870,17 +1769,14 @@
       <c r="E13" s="10">
         <v>300</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>220</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>100</v>
       </c>
-      <c r="I13" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" dyDescent="0.25">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -1896,19 +1792,16 @@
       <c r="E14" s="10">
         <v>300</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>220</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="I14" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1">
         <v>2.5</v>
@@ -1939,7 +1832,7 @@
     </row>
     <row r="2" spans="1:13" dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2001,10 +1894,10 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
         <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13" dyDescent="0.25">
@@ -2941,7 +2834,7 @@
     </row>
     <row r="2" spans="1:28" dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:28" dyDescent="0.25">
@@ -3477,7 +3370,7 @@
     </row>
     <row r="18" spans="1:28" dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -3743,7 +3636,7 @@
     </row>
     <row r="24" spans="1:28" dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:28" dyDescent="0.25">
@@ -3837,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3923,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -4006,7 +3899,7 @@
     </row>
     <row r="31" spans="1:28" dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:28" dyDescent="0.25">
@@ -4105,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4188,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -4268,7 +4161,7 @@
     </row>
     <row r="39" spans="1:28" dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:28" dyDescent="0.25">
@@ -4367,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4450,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -4695,13 +4588,13 @@
         <v>40.0</v>
       </c>
       <c r="K4">
-        <v>69.67852887854568</v>
+        <v>69.6785288785457</v>
       </c>
       <c r="L4">
-        <v>133.6026184217826</v>
+        <v>133.6026184217829</v>
       </c>
       <c r="M4">
-        <v>170.2253451969387</v>
+        <v>170.22534519693886</v>
       </c>
       <c r="N4">
         <v>177.6325005239911</v>
@@ -4710,31 +4603,31 @@
         <v>151.79530703612227</v>
       </c>
       <c r="P4">
-        <v>88.03458795994118</v>
+        <v>88.03458795994129</v>
       </c>
       <c r="Q4">
         <v>83.12422656335627</v>
       </c>
       <c r="R4">
-        <v>50.400813766027426</v>
+        <v>50.40081376602748</v>
       </c>
       <c r="S4">
         <v>40.0</v>
       </c>
       <c r="T4">
-        <v>123.42859456650842</v>
+        <v>-0.0</v>
       </c>
       <c r="U4">
         <v>-0.0</v>
       </c>
       <c r="V4">
-        <v>-0.0</v>
+        <v>139.96908374044145</v>
       </c>
       <c r="W4">
-        <v>64.57397239848038</v>
+        <v>64.57397239848035</v>
       </c>
       <c r="X4">
-        <v>59.441673763632195</v>
+        <v>59.44167376363214</v>
       </c>
       <c r="Y4">
         <v>40.0</v>
@@ -4772,7 +4665,7 @@
         <v>-0.0</v>
       </c>
       <c r="J5">
-        <v>105.29557745877044</v>
+        <v>105.29557745877048</v>
       </c>
       <c r="K5">
         <v>186.0</v>
@@ -4799,16 +4692,16 @@
         <v>186.0</v>
       </c>
       <c r="S5">
-        <v>180.13466367828275</v>
+        <v>180.13466367828272</v>
       </c>
       <c r="T5">
-        <v>-0.0</v>
+        <v>123.42859456650862</v>
       </c>
       <c r="U5">
         <v>-0.0</v>
       </c>
       <c r="V5">
-        <v>139.96908374044145</v>
+        <v>-0.0</v>
       </c>
       <c r="W5">
         <v>186.0</v>
@@ -4817,10 +4710,10 @@
         <v>186.0</v>
       </c>
       <c r="Y5">
-        <v>128.7685228668009</v>
+        <v>128.76852286680094</v>
       </c>
       <c r="Z5">
-        <v>51.654579955085794</v>
+        <v>51.654579955085836</v>
       </c>
     </row>
     <row r="6" spans="1:26" dyDescent="0.25">
@@ -4831,76 +4724,76 @@
         <v>51</v>
       </c>
       <c r="C6">
-        <v>325.5</v>
+        <v>300.2453793738823</v>
       </c>
       <c r="D6">
         <v>288.4200723993217</v>
       </c>
       <c r="E6">
-        <v>325.5</v>
+        <v>286.33388178119253</v>
       </c>
       <c r="F6">
         <v>325.5</v>
       </c>
       <c r="G6">
-        <v>281.84444915372</v>
+        <v>325.5</v>
       </c>
       <c r="H6">
+        <v>285.6249895778327</v>
+      </c>
+      <c r="I6">
         <v>325.5</v>
       </c>
-      <c r="I6">
-        <v>295.0018871996832</v>
-      </c>
       <c r="J6">
-        <v>213.808783176009</v>
+        <v>286.3458798371652</v>
       </c>
       <c r="K6">
-        <v>286.3458798371652</v>
+        <v>146.34587983716523</v>
       </c>
       <c r="L6">
+        <v>247.27730431521718</v>
+      </c>
+      <c r="M6">
+        <v>210.0</v>
+      </c>
+      <c r="N6">
         <v>325.5</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>325.5</v>
       </c>
-      <c r="N6">
-        <v>205.47295848301428</v>
-      </c>
-      <c r="O6">
-        <v>211.65845328182309</v>
-      </c>
       <c r="P6">
-        <v>135.12718144613416</v>
+        <v>248.96872816431102</v>
       </c>
       <c r="Q6">
         <v>138.1282539124502</v>
       </c>
       <c r="R6">
+        <v>158.12786803825793</v>
+      </c>
+      <c r="S6">
         <v>210.0</v>
-      </c>
-      <c r="S6">
-        <v>325.5</v>
       </c>
       <c r="T6">
         <v>325.5</v>
       </c>
       <c r="U6">
-        <v>300.2960969476626</v>
+        <v>325.5</v>
       </c>
       <c r="V6">
-        <v>217.0641838174364</v>
+        <v>325.5</v>
       </c>
       <c r="W6">
-        <v>149.46563878519981</v>
+        <v>325.5</v>
       </c>
       <c r="X6">
-        <v>152.6023529449085</v>
+        <v>213.13671415970862</v>
       </c>
       <c r="Y6">
-        <v>268.1023529449085</v>
+        <v>325.5</v>
       </c>
       <c r="Z6">
-        <v>246.5926269040898</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="7" spans="1:26" dyDescent="0.25">
@@ -4911,76 +4804,76 @@
         <v>51</v>
       </c>
       <c r="C7">
-        <v>300.24537937388226</v>
+        <v>325.5</v>
       </c>
       <c r="D7">
         <v>325.5</v>
       </c>
       <c r="E7">
-        <v>286.33388178119253</v>
+        <v>325.5</v>
       </c>
       <c r="F7">
         <v>283.0058433617743</v>
       </c>
       <c r="G7">
+        <v>281.84444915372</v>
+      </c>
+      <c r="H7">
         <v>325.5</v>
       </c>
-      <c r="H7">
-        <v>285.6249895778328</v>
-      </c>
       <c r="I7">
+        <v>295.0018871996832</v>
+      </c>
+      <c r="J7">
+        <v>252.96290333884374</v>
+      </c>
+      <c r="K7">
         <v>325.5</v>
       </c>
-      <c r="J7">
-        <v>325.5</v>
-      </c>
-      <c r="K7">
+      <c r="L7">
         <v>185.5</v>
       </c>
-      <c r="L7">
-        <v>107.27730431521746</v>
-      </c>
       <c r="M7">
-        <v>84.8945409929946</v>
+        <v>200.3945409929945</v>
       </c>
       <c r="N7">
-        <v>200.39454099299462</v>
+        <v>80.36749947600887</v>
       </c>
       <c r="O7">
-        <v>210.0</v>
+        <v>96.15845328182303</v>
       </c>
       <c r="P7">
-        <v>325.5</v>
+        <v>211.65845328182303</v>
       </c>
       <c r="Q7">
         <v>325.5</v>
       </c>
       <c r="R7">
-        <v>273.62786803825804</v>
+        <v>325.5</v>
       </c>
       <c r="S7">
-        <v>168.06927381650618</v>
+        <v>283.5692738165062</v>
       </c>
       <c r="T7">
-        <v>227.17325780001823</v>
+        <v>227.17325780001804</v>
       </c>
       <c r="U7">
-        <v>325.5</v>
+        <v>300.2960969476626</v>
       </c>
       <c r="V7">
-        <v>325.5</v>
+        <v>217.06418381743643</v>
       </c>
       <c r="W7">
-        <v>325.5</v>
+        <v>149.46563878519987</v>
       </c>
       <c r="X7">
-        <v>325.5</v>
+        <v>264.96563878519987</v>
       </c>
       <c r="Y7">
-        <v>256.86043724240227</v>
+        <v>199.46279018731073</v>
       </c>
       <c r="Z7">
-        <v>325.5</v>
+        <v>246.5926269040897</v>
       </c>
     </row>
     <row r="8" spans="1:26" dyDescent="0.25">
@@ -4997,7 +4890,7 @@
         <v>8.0</v>
       </c>
       <c r="E8">
-        <v>-0.0</v>
+        <v>9.65944108365268</v>
       </c>
       <c r="F8">
         <v>-0.0</v>
@@ -5071,13 +4964,13 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>17.095278195390513</v>
+        <v>17.095278195390485</v>
       </c>
       <c r="D9">
         <v>8.0</v>
       </c>
       <c r="E9">
-        <v>9.65944108365268</v>
+        <v>-0.0</v>
       </c>
       <c r="F9">
         <v>-0.0</v>
@@ -5089,7 +4982,7 @@
         <v>-0.0</v>
       </c>
       <c r="I9">
-        <v>8.845217522253485</v>
+        <v>8.84521752225335</v>
       </c>
       <c r="J9">
         <v>18.6</v>
@@ -5125,7 +5018,7 @@
         <v>18.6</v>
       </c>
       <c r="U9">
-        <v>17.354984873298356</v>
+        <v>17.35498487329827</v>
       </c>
       <c r="V9">
         <v>18.6</v>
@@ -5163,13 +5056,13 @@
         <v>-0.0</v>
       </c>
       <c r="G10">
-        <v>-5.684341886080802e-14</v>
+        <v>-0.0</v>
       </c>
       <c r="H10">
-        <v>-5.684341886080802e-14</v>
+        <v>-0.0</v>
       </c>
       <c r="I10">
-        <v>18.599999999999866</v>
+        <v>18.6</v>
       </c>
       <c r="J10">
         <v>18.6</v>
@@ -5249,7 +5142,7 @@
         <v>-0.0</v>
       </c>
       <c r="I11">
-        <v>18.6</v>
+        <v>-0.0</v>
       </c>
       <c r="J11">
         <v>18.6</v>
@@ -5329,7 +5222,7 @@
         <v>-0.0</v>
       </c>
       <c r="I12">
-        <v>-0.0</v>
+        <v>18.6</v>
       </c>
       <c r="J12">
         <v>18.6</v>
@@ -5568,13 +5461,13 @@
         <v>14.000000000000002</v>
       </c>
       <c r="T4">
-        <v>14.000000000000002</v>
+        <v>-0.0</v>
       </c>
       <c r="U4">
         <v>-0.0</v>
       </c>
       <c r="V4">
-        <v>-0.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="W4">
         <v>14.000000000000002</v>
@@ -5648,13 +5541,13 @@
         <v>14.000000000000002</v>
       </c>
       <c r="T5">
-        <v>-0.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="U5">
         <v>-0.0</v>
       </c>
       <c r="V5">
-        <v>14.000000000000002</v>
+        <v>-0.0</v>
       </c>
       <c r="W5">
         <v>14.000000000000002</v>
@@ -5843,7 +5736,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="E8">
-        <v>-0.0</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="F8">
         <v>-0.0</v>
@@ -5923,7 +5816,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="E9">
-        <v>1.4000000000000001</v>
+        <v>-0.0</v>
       </c>
       <c r="F9">
         <v>-0.0</v>
@@ -6009,13 +5902,13 @@
         <v>-0.0</v>
       </c>
       <c r="G10">
-        <v>-9.947598300641404e-15</v>
+        <v>-0.0</v>
       </c>
       <c r="H10">
-        <v>-9.947598300641404e-15</v>
+        <v>-0.0</v>
       </c>
       <c r="I10">
-        <v>1.3999999999999901</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="J10">
         <v>1.4000000000000001</v>
@@ -6095,7 +5988,7 @@
         <v>-0.0</v>
       </c>
       <c r="I11">
-        <v>1.4000000000000001</v>
+        <v>-0.0</v>
       </c>
       <c r="J11">
         <v>1.4000000000000001</v>
@@ -6175,7 +6068,7 @@
         <v>-0.0</v>
       </c>
       <c r="I12">
-        <v>-0.0</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="J12">
         <v>1.4000000000000001</v>
@@ -6363,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -6372,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>139.59306103231702</v>
+        <v>139.59306103231705</v>
       </c>
       <c r="F4">
         <v>138.45293581265474</v>
@@ -6381,67 +6274,67 @@
         <v>139.13174000816372</v>
       </c>
       <c r="H4">
-        <v>138.74048311274092</v>
+        <v>138.740483112741</v>
       </c>
       <c r="I4">
-        <v>138.47568303683767</v>
+        <v>138.47568303683775</v>
       </c>
       <c r="J4">
-        <v>139.0332530513748</v>
+        <v>139.03325305137474</v>
       </c>
       <c r="K4">
         <v>139.4191808900948</v>
       </c>
       <c r="L4">
-        <v>41.946785288965046</v>
+        <v>41.946785288965</v>
       </c>
       <c r="M4">
-        <v>-32.295921869017924</v>
+        <v>-32.295921869017945</v>
       </c>
       <c r="N4">
-        <v>-75.29076300395957</v>
+        <v>-75.2907630039598</v>
       </c>
       <c r="O4">
-        <v>-99.92292172342316</v>
+        <v>-99.92292172342327</v>
       </c>
       <c r="P4">
-        <v>-104.90491628641257</v>
+        <v>-104.9049162864126</v>
       </c>
       <c r="Q4">
-        <v>-87.52702264222847</v>
+        <v>-87.52702264222853</v>
       </c>
       <c r="R4">
-        <v>-44.64206320176847</v>
+        <v>-44.642063201768565</v>
       </c>
       <c r="S4">
         <v>-41.33939264877577</v>
       </c>
       <c r="T4">
-        <v>-19.329881920231884</v>
+        <v>-19.32988192023194</v>
       </c>
       <c r="U4">
-        <v>-8.389396981034338</v>
+        <v>-8.38939698103431</v>
       </c>
       <c r="V4">
-        <v>56.654346433303026</v>
+        <v>56.65434643330289</v>
       </c>
       <c r="W4">
-        <v>139.59474288453475</v>
+        <v>139.5947428845348</v>
       </c>
       <c r="X4">
         <v>45.52934317695687</v>
       </c>
       <c r="Y4">
-        <v>-28.86263722635909</v>
+        <v>-28.862637226359084</v>
       </c>
       <c r="Z4">
-        <v>-25.410693428033667</v>
+        <v>-25.410693428033625</v>
       </c>
       <c r="AA4">
-        <v>26.159066355481972</v>
+        <v>26.15906635548197</v>
       </c>
       <c r="AB4">
-        <v>78.02529939014438</v>
+        <v>78.02529939014434</v>
       </c>
     </row>
     <row r="5" spans="1:28" dyDescent="0.25">
@@ -6449,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -6458,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>139.59306103231702</v>
+        <v>139.59306103231705</v>
       </c>
       <c r="F5">
         <v>138.45293581265474</v>
@@ -6467,13 +6360,13 @@
         <v>139.13174000816372</v>
       </c>
       <c r="H5">
-        <v>138.74048311274092</v>
+        <v>138.740483112741</v>
       </c>
       <c r="I5">
-        <v>138.47568303683767</v>
+        <v>138.47568303683775</v>
       </c>
       <c r="J5">
-        <v>139.0332530513748</v>
+        <v>139.03325305137474</v>
       </c>
       <c r="K5">
         <v>139.4191808900948</v>
@@ -6485,10 +6378,10 @@
         <v>223.38260700952776</v>
       </c>
       <c r="N5">
-        <v>244.311855417823</v>
+        <v>244.3118554178231</v>
       </c>
       <c r="O5">
-        <v>256.30242347351555</v>
+        <v>256.3024234735156</v>
       </c>
       <c r="P5">
         <v>258.7275842375785</v>
@@ -6509,22 +6402,22 @@
         <v>211.7452666972484</v>
       </c>
       <c r="V5">
-        <v>180.08294099981146</v>
+        <v>180.0829409998115</v>
       </c>
       <c r="W5">
-        <v>139.59474288453475</v>
+        <v>139.5947428845348</v>
       </c>
       <c r="X5">
         <v>185.49842691739832</v>
       </c>
       <c r="Y5">
-        <v>221.7113351721213</v>
+        <v>221.71133517212127</v>
       </c>
       <c r="Z5">
         <v>220.0309803355985</v>
       </c>
       <c r="AA5">
-        <v>194.92758922228288</v>
+        <v>194.9275892222829</v>
       </c>
       <c r="AB5">
         <v>169.67987934523018</v>
@@ -6535,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -6553,10 +6446,10 @@
         <v>300.0</v>
       </c>
       <c r="H6">
-        <v>299.29092273206635</v>
+        <v>299.2909227320663</v>
       </c>
       <c r="I6">
-        <v>298.7196960988694</v>
+        <v>298.71969609886935</v>
       </c>
       <c r="J6">
         <v>299.81072629047287</v>
@@ -6621,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -6630,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>145.18764254044797</v>
+        <v>145.187642540448</v>
       </c>
       <c r="F7">
         <v>139.44689906340875</v>
@@ -6639,7 +6532,7 @@
         <v>136.6735433460813</v>
       </c>
       <c r="H7">
-        <v>135.1987364525163</v>
+        <v>135.19873645251627</v>
       </c>
       <c r="I7">
         <v>134.94069615402924</v>
@@ -6651,13 +6544,13 @@
         <v>141.978526325708</v>
       </c>
       <c r="L7">
-        <v>152.28348422705673</v>
+        <v>152.28348422705676</v>
       </c>
       <c r="M7">
         <v>156.57516931686658</v>
       </c>
       <c r="N7">
-        <v>159.06053556630746</v>
+        <v>159.0605355663074</v>
       </c>
       <c r="O7">
         <v>160.48442583584193</v>
@@ -6681,16 +6574,16 @@
         <v>155.1932251456687</v>
       </c>
       <c r="V7">
-        <v>151.4332967367716</v>
+        <v>151.43329673677158</v>
       </c>
       <c r="W7">
-        <v>145.218682653217</v>
+        <v>145.21868265321703</v>
       </c>
       <c r="X7">
         <v>152.07639034726924</v>
       </c>
       <c r="Y7">
-        <v>156.37670434873687</v>
+        <v>156.3767043487369</v>
       </c>
       <c r="Z7">
         <v>156.17716076664993</v>
@@ -6707,7 +6600,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -6716,7 +6609,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>93.9817977890514</v>
+        <v>93.98179778905141</v>
       </c>
       <c r="F8">
         <v>92.06138657070429</v>
@@ -6725,7 +6618,7 @@
         <v>91.63779531239685</v>
       </c>
       <c r="H8">
-        <v>91.10411012195294</v>
+        <v>91.10411012195293</v>
       </c>
       <c r="I8">
         <v>90.93022882404952</v>
@@ -6734,25 +6627,25 @@
         <v>91.52557681278952</v>
       </c>
       <c r="K8">
-        <v>93.09830134585752</v>
+        <v>93.09830134585754</v>
       </c>
       <c r="L8">
-        <v>95.93534215207272</v>
+        <v>95.93534215207274</v>
       </c>
       <c r="M8">
         <v>97.11687883022086</v>
       </c>
       <c r="N8">
-        <v>97.8011208752205</v>
+        <v>97.80112087522046</v>
       </c>
       <c r="O8">
         <v>98.19312973512211</v>
       </c>
       <c r="P8">
-        <v>98.27241576242146</v>
+        <v>98.27241576242147</v>
       </c>
       <c r="Q8">
-        <v>97.99585501301522</v>
+        <v>97.9958550130152</v>
       </c>
       <c r="R8">
         <v>97.31336168189279</v>
@@ -6761,25 +6654,25 @@
         <v>97.26080128177298</v>
       </c>
       <c r="T8">
-        <v>96.9105305927135</v>
+        <v>96.91053059271351</v>
       </c>
       <c r="U8">
         <v>96.7364180808289</v>
       </c>
       <c r="V8">
-        <v>95.70127844934214</v>
+        <v>95.70127844934211</v>
       </c>
       <c r="W8">
-        <v>93.99034339082854</v>
+        <v>93.99034339082856</v>
       </c>
       <c r="X8">
         <v>95.87832748075635</v>
       </c>
       <c r="Y8">
-        <v>97.06223977020932</v>
+        <v>97.06223977020933</v>
       </c>
       <c r="Z8">
-        <v>97.00730375878466</v>
+        <v>97.00730375878467</v>
       </c>
       <c r="AA8">
         <v>96.18659604216202</v>
@@ -6793,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10">
         <v>4</v>
@@ -6802,7 +6695,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>73.49945988849277</v>
+        <v>73.49945988849278</v>
       </c>
       <c r="F9">
         <v>73.1071815736225</v>
@@ -6811,7 +6704,7 @@
         <v>73.62349609892307</v>
       </c>
       <c r="H9">
-        <v>73.4662595897276</v>
+        <v>73.46625958972758</v>
       </c>
       <c r="I9">
         <v>73.32604189205763</v>
@@ -6820,25 +6713,25 @@
         <v>73.57992494096828</v>
       </c>
       <c r="K9">
-        <v>73.54621135391733</v>
+        <v>73.54621135391734</v>
       </c>
       <c r="L9">
-        <v>73.39608532207912</v>
+        <v>73.39608532207913</v>
       </c>
       <c r="M9">
         <v>73.33356263556257</v>
       </c>
       <c r="N9">
-        <v>73.29735499878572</v>
+        <v>73.29735499878568</v>
       </c>
       <c r="O9">
         <v>73.2766112948342</v>
       </c>
       <c r="P9">
-        <v>73.27241576242146</v>
+        <v>73.27241576242147</v>
       </c>
       <c r="Q9">
-        <v>73.28705036611825</v>
+        <v>73.28705036611824</v>
       </c>
       <c r="R9">
         <v>73.32316546722394</v>
@@ -6847,25 +6740,25 @@
         <v>73.32594677522786</v>
       </c>
       <c r="T9">
-        <v>73.3444818447632</v>
+        <v>73.34448184476321</v>
       </c>
       <c r="U9">
         <v>73.35369525489298</v>
       </c>
       <c r="V9">
-        <v>73.40847113437036</v>
+        <v>73.40847113437033</v>
       </c>
       <c r="W9">
-        <v>73.49900768587315</v>
+        <v>73.49900768587317</v>
       </c>
       <c r="X9">
         <v>73.3991023341512</v>
       </c>
       <c r="Y9">
-        <v>73.3364539387983</v>
+        <v>73.33645393879831</v>
       </c>
       <c r="Z9">
-        <v>73.33936095563855</v>
+        <v>73.33936095563857</v>
       </c>
       <c r="AA9">
         <v>73.38278986668053</v>
@@ -6879,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10">
         <v>5</v>
@@ -6888,76 +6781,76 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>-8.42989171374177</v>
+        <v>-8.429891713741755</v>
       </c>
       <c r="F10">
         <v>-2.709638414704663</v>
       </c>
       <c r="G10">
-        <v>1.566299245027977</v>
+        <v>1.5662992450279802</v>
       </c>
       <c r="H10">
-        <v>2.9148574608262385</v>
+        <v>2.91485746082623</v>
       </c>
       <c r="I10">
-        <v>2.9092941640901007</v>
+        <v>2.909294164090103</v>
       </c>
       <c r="J10">
         <v>1.7973174536833139</v>
       </c>
       <c r="K10">
-        <v>-4.662148613843427</v>
+        <v>-4.662148613843417</v>
       </c>
       <c r="L10">
-        <v>-16.760941997895312</v>
+        <v>-16.760941997895305</v>
       </c>
       <c r="M10">
-        <v>-21.799702143070586</v>
+        <v>-21.79970214307059</v>
       </c>
       <c r="N10">
-        <v>-24.717708506953425</v>
+        <v>-24.717708506953468</v>
       </c>
       <c r="O10">
-        <v>-26.3894624663175</v>
+        <v>-26.389462466317504</v>
       </c>
       <c r="P10">
-        <v>-26.727584237578537</v>
+        <v>-26.727584237578533</v>
       </c>
       <c r="Q10">
-        <v>-25.548168221469613</v>
+        <v>-25.54816822146962</v>
       </c>
       <c r="R10">
-        <v>-22.63761939145145</v>
+        <v>-22.637619391451455</v>
       </c>
       <c r="S10">
         <v>-22.413471250952593</v>
       </c>
       <c r="T10">
-        <v>-20.919713147038014</v>
+        <v>-20.919713147038</v>
       </c>
       <c r="U10">
-        <v>-20.17719604885066</v>
+        <v>-20.177196048850657</v>
       </c>
       <c r="V10">
-        <v>-15.762758125516802</v>
+        <v>-15.762758125516818</v>
       </c>
       <c r="W10">
-        <v>-8.466335133948391</v>
+        <v>-8.466335133948382</v>
       </c>
       <c r="X10">
         <v>-16.517798252269436</v>
       </c>
       <c r="Y10">
-        <v>-21.56668938684578</v>
+        <v>-21.566689386845773</v>
       </c>
       <c r="Z10">
-        <v>-21.332410256945877</v>
+        <v>-21.332410256945867</v>
       </c>
       <c r="AA10">
         <v>-17.832434835245458</v>
       </c>
       <c r="AB10">
-        <v>-14.31233814292907</v>
+        <v>-14.312338142929057</v>
       </c>
     </row>
     <row r="11" spans="1:28" dyDescent="0.25">
@@ -6965,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10">
         <v>7</v>
@@ -6980,22 +6873,22 @@
         <v>46.56779669741255</v>
       </c>
       <c r="G11">
-        <v>35.019025394600426</v>
+        <v>35.01902539460044</v>
       </c>
       <c r="H11">
-        <v>31.205665109789997</v>
+        <v>31.20566510979002</v>
       </c>
       <c r="I11">
-        <v>31.14610597964791</v>
+        <v>31.146105979647974</v>
       </c>
       <c r="J11">
         <v>34.356876662625254</v>
       </c>
       <c r="K11">
-        <v>52.201947141134085</v>
+        <v>52.20194714113407</v>
       </c>
       <c r="L11">
-        <v>85.5798648272449</v>
+        <v>85.57986482724492</v>
       </c>
       <c r="M11">
         <v>99.4806990697247</v>
@@ -7004,46 +6897,46 @@
         <v>107.53083871006393</v>
       </c>
       <c r="O11">
-        <v>112.14284126898326</v>
+        <v>112.14284126898323</v>
       </c>
       <c r="P11">
-        <v>113.07564508592493</v>
+        <v>113.07564508592492</v>
       </c>
       <c r="Q11">
         <v>109.82189494293502</v>
       </c>
       <c r="R11">
-        <v>101.7923290030944</v>
+        <v>101.79232900309438</v>
       </c>
       <c r="S11">
         <v>101.17395343905443</v>
       </c>
       <c r="T11">
-        <v>97.0530024109012</v>
+        <v>97.05300241090121</v>
       </c>
       <c r="U11">
-        <v>95.00456057070116</v>
+        <v>95.00456057070114</v>
       </c>
       <c r="V11">
-        <v>82.82609442467152</v>
+        <v>82.82609442467154</v>
       </c>
       <c r="W11">
-        <v>62.69686349354083</v>
+        <v>62.69686349354077</v>
       </c>
       <c r="X11">
         <v>84.90908455438807</v>
       </c>
       <c r="Y11">
-        <v>98.83786797490356</v>
+        <v>98.83786797490353</v>
       </c>
       <c r="Z11">
-        <v>98.19154323282797</v>
+        <v>98.19154323282793</v>
       </c>
       <c r="AA11">
-        <v>88.53587858754877</v>
+        <v>88.53587858754878</v>
       </c>
       <c r="AB11">
-        <v>78.82470376922662</v>
+        <v>78.82470376922657</v>
       </c>
     </row>
     <row r="12" spans="1:28" dyDescent="0.25">
@@ -7051,7 +6944,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10">
         <v>9</v>
@@ -7066,7 +6959,7 @@
         <v>69.86707169978285</v>
       </c>
       <c r="G12">
-        <v>71.50047064121425</v>
+        <v>71.50047064121424</v>
       </c>
       <c r="H12">
         <v>71.7065806227358</v>
@@ -7078,28 +6971,28 @@
         <v>71.51971711461887</v>
       </c>
       <c r="K12">
-        <v>69.77274142435046</v>
+        <v>69.77274142435047</v>
       </c>
       <c r="L12">
-        <v>66.41661815061204</v>
+        <v>66.41661815061202</v>
       </c>
       <c r="M12">
-        <v>65.01890024129558</v>
+        <v>65.01890024129561</v>
       </c>
       <c r="N12">
-        <v>64.20946505549814</v>
+        <v>64.20946505549823</v>
       </c>
       <c r="O12">
-        <v>63.745731839061776</v>
+        <v>63.745731839061825</v>
       </c>
       <c r="P12">
-        <v>63.6519391516536</v>
+        <v>63.651939151653615</v>
       </c>
       <c r="Q12">
-        <v>63.979101159916354</v>
+        <v>63.97910115991639</v>
       </c>
       <c r="R12">
-        <v>64.78646767637014</v>
+        <v>64.78646767637018</v>
       </c>
       <c r="S12">
         <v>64.84864485116887</v>
@@ -7108,28 +7001,28 @@
         <v>65.26300322383861</v>
       </c>
       <c r="U12">
-        <v>65.46897243376495</v>
+        <v>65.46897243376496</v>
       </c>
       <c r="V12">
-        <v>66.69350759067598</v>
+        <v>66.693507590676</v>
       </c>
       <c r="W12">
-        <v>68.71748587013991</v>
+        <v>68.71748587013995</v>
       </c>
       <c r="X12">
         <v>66.4840645775123</v>
       </c>
       <c r="Y12">
-        <v>65.08353640040836</v>
+        <v>65.08353640040838</v>
       </c>
       <c r="Z12">
-        <v>65.14852384299454</v>
+        <v>65.14852384299458</v>
       </c>
       <c r="AA12">
         <v>66.11939330058566</v>
       </c>
       <c r="AB12">
-        <v>67.09584426225473</v>
+        <v>67.09584426225476</v>
       </c>
     </row>
     <row r="13" spans="1:28" dyDescent="0.25">
@@ -7137,7 +7030,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10">
         <v>7</v>
@@ -7146,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>24.26564217215204</v>
+        <v>24.265642172152013</v>
       </c>
       <c r="F13">
         <v>13.180704163999565</v>
@@ -7155,13 +7048,13 @@
         <v>4.982653699626468</v>
       </c>
       <c r="H13">
-        <v>2.3623211450617987</v>
+        <v>2.362321145061705</v>
       </c>
       <c r="I13">
-        <v>2.3578124190974137</v>
+        <v>2.357812419097304</v>
       </c>
       <c r="J13">
-        <v>4.531961923195134</v>
+        <v>4.53196192319519</v>
       </c>
       <c r="K13">
         <v>16.99753904542672</v>
@@ -7170,52 +7063,52 @@
         <v>-6.92830810778662</v>
       </c>
       <c r="M13">
-        <v>-33.116077452261436</v>
+        <v>-33.11607745226145</v>
       </c>
       <c r="N13">
-        <v>-48.281728406344705</v>
+        <v>-48.28172840634478</v>
       </c>
       <c r="O13">
-        <v>-56.97027595121217</v>
+        <v>-56.970275951212194</v>
       </c>
       <c r="P13">
         <v>-58.72758423757853</v>
       </c>
       <c r="Q13">
-        <v>-52.59784721871804</v>
+        <v>-52.59784721871805</v>
       </c>
       <c r="R13">
-        <v>-37.47095504082192</v>
+        <v>-37.470955040821934</v>
       </c>
       <c r="S13">
         <v>-36.3059978622196</v>
       </c>
       <c r="T13">
-        <v>-28.54254186219312</v>
+        <v>-28.542541862193133</v>
       </c>
       <c r="U13">
         <v>-24.683484089761123</v>
       </c>
       <c r="V13">
-        <v>-1.7404824800371526</v>
+        <v>-1.7404824800372012</v>
       </c>
       <c r="W13">
-        <v>24.335942755108334</v>
+        <v>24.335942755108277</v>
       </c>
       <c r="X13">
         <v>-5.664625744557085</v>
       </c>
       <c r="Y13">
-        <v>-31.90504852083314</v>
+        <v>-31.90504852083312</v>
       </c>
       <c r="Z13">
         <v>-30.68743791042965</v>
       </c>
       <c r="AA13">
-        <v>-12.497139818430895</v>
+        <v>-12.49713981843091</v>
       </c>
       <c r="AB13">
-        <v>5.797733839506165</v>
+        <v>5.797733839506179</v>
       </c>
     </row>
     <row r="14" spans="1:28" dyDescent="0.25">
@@ -7223,7 +7116,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="10">
         <v>7</v>
@@ -7238,40 +7131,40 @@
         <v>-38.7027058584939</v>
       </c>
       <c r="G14">
-        <v>-48.35653722404798</v>
+        <v>-48.356537224048</v>
       </c>
       <c r="H14">
-        <v>-51.20583678707713</v>
+        <v>-51.205836787077104</v>
       </c>
       <c r="I14">
-        <v>-51.10810533073726</v>
+        <v>-51.108105330737246</v>
       </c>
       <c r="J14">
         <v>-48.834490457641685</v>
       </c>
       <c r="K14">
-        <v>-34.706358656247644</v>
+        <v>-34.70635865624763</v>
       </c>
       <c r="L14">
-        <v>-8.190813549451889</v>
+        <v>-8.190813549451903</v>
       </c>
       <c r="M14">
-        <v>2.8520621878784453</v>
+        <v>2.8520621878784738</v>
       </c>
       <c r="N14">
-        <v>9.247123819845982</v>
+        <v>9.247123819846067</v>
       </c>
       <c r="O14">
-        <v>12.910916241940996</v>
+        <v>12.910916241941045</v>
       </c>
       <c r="P14">
-        <v>13.6519391516536</v>
+        <v>13.651939151653615</v>
       </c>
       <c r="Q14">
-        <v>11.067147628886033</v>
+        <v>11.067147628886069</v>
       </c>
       <c r="R14">
-        <v>4.688429823058669</v>
+        <v>4.688429823058712</v>
       </c>
       <c r="S14">
         <v>4.1971899166200615</v>
@@ -7280,28 +7173,28 @@
         <v>0.9234907033416277</v>
       </c>
       <c r="U14">
-        <v>-0.7037993068759363</v>
+        <v>-0.7037993068759221</v>
       </c>
       <c r="V14">
-        <v>-10.378419259606147</v>
+        <v>-10.378419259606119</v>
       </c>
       <c r="W14">
-        <v>-26.369157080306195</v>
+        <v>-26.369157080306152</v>
       </c>
       <c r="X14">
         <v>-8.723683956436133</v>
       </c>
       <c r="Y14">
-        <v>2.3413947145185574</v>
+        <v>2.3413947145185716</v>
       </c>
       <c r="Z14">
-        <v>1.8279518744555787</v>
+        <v>1.8279518744556214</v>
       </c>
       <c r="AA14">
         <v>-5.842544944599368</v>
       </c>
       <c r="AB14">
-        <v>-13.557139256824826</v>
+        <v>-13.557139256824797</v>
       </c>
     </row>
   </sheetData>
@@ -7540,13 +7433,13 @@
         <v>1.0</v>
       </c>
       <c r="T4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4">
         <v>0.0</v>
       </c>
       <c r="V4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W4">
         <v>1.0</v>
@@ -7620,13 +7513,13 @@
         <v>1.0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5">
         <v>0.0</v>
       </c>
       <c r="V5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5">
         <v>1.0</v>
@@ -7815,7 +7708,7 @@
         <v>1.0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8">
         <v>0.0</v>
@@ -7895,7 +7788,7 @@
         <v>1.0</v>
       </c>
       <c r="E9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
         <v>0.0</v>
@@ -7981,13 +7874,13 @@
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>-7.105427357601002e-15</v>
+        <v>0.0</v>
       </c>
       <c r="H10">
-        <v>-7.105427357601002e-15</v>
+        <v>0.0</v>
       </c>
       <c r="I10">
-        <v>0.9999999999999929</v>
+        <v>1.0</v>
       </c>
       <c r="J10">
         <v>1.0</v>
@@ -8067,7 +7960,7 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11">
         <v>1.0</v>
@@ -8147,7 +8040,7 @@
         <v>0.0</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12">
         <v>1.0</v>
@@ -8262,7 +8155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4A808-DD1D-48E7-ADA7-6FAF8E208BC3}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8384,25 +8277,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>59.75903614457832</v>
+        <v>59.75903614457831</v>
       </c>
       <c r="D4">
         <v>50.0</v>
       </c>
       <c r="E4">
-        <v>59.75903614457832</v>
+        <v>59.75903614457831</v>
       </c>
       <c r="F4">
-        <v>50.0</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="G4">
-        <v>50.0</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="H4">
         <v>50.0</v>
       </c>
       <c r="I4">
-        <v>59.75903614457832</v>
+        <v>59.75903614457831</v>
       </c>
       <c r="J4">
         <v>70.0</v>
@@ -8544,13 +8437,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>55.428329798087525</v>
+        <v>55.42832979808753</v>
       </c>
       <c r="D6">
         <v>50.0</v>
       </c>
       <c r="E6">
-        <v>55.428329798087525</v>
+        <v>55.42832979808753</v>
       </c>
       <c r="F6">
         <v>50.0</v>
@@ -8562,28 +8455,28 @@
         <v>50.0</v>
       </c>
       <c r="I6">
-        <v>55.428329798087525</v>
+        <v>55.42832979808753</v>
       </c>
       <c r="J6">
         <v>61.12472526521641</v>
       </c>
       <c r="K6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="L6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="M6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="N6">
         <v>61.12472526521641</v>
       </c>
       <c r="O6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="P6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="Q6">
         <v>61.12472526521641</v>
@@ -8595,7 +8488,7 @@
         <v>61.12472526521641</v>
       </c>
       <c r="T6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="U6">
         <v>55.428329798087525</v>
@@ -8604,7 +8497,7 @@
         <v>61.12472526521641</v>
       </c>
       <c r="W6">
-        <v>61.124725265216405</v>
+        <v>61.12472526521641</v>
       </c>
       <c r="X6">
         <v>61.12472526521641</v>
@@ -8624,13 +8517,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>62.967676739875756</v>
+        <v>62.96767673987576</v>
       </c>
       <c r="D7">
         <v>50.0</v>
       </c>
       <c r="E7">
-        <v>62.967676739875756</v>
+        <v>62.96767673987576</v>
       </c>
       <c r="F7">
         <v>50.0</v>
@@ -8642,7 +8535,7 @@
         <v>50.0</v>
       </c>
       <c r="I7">
-        <v>62.967676739875756</v>
+        <v>62.96767673987576</v>
       </c>
       <c r="J7">
         <v>76.57573257801698</v>
@@ -8704,13 +8597,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>71.41174531467857</v>
+        <v>71.41174531467858</v>
       </c>
       <c r="D8">
         <v>50.0</v>
       </c>
       <c r="E8">
-        <v>71.41174531467857</v>
+        <v>71.41174531467858</v>
       </c>
       <c r="F8">
         <v>50.0</v>
@@ -8722,52 +8615,52 @@
         <v>50.0</v>
       </c>
       <c r="I8">
-        <v>71.41174531467857</v>
+        <v>71.41174531467858</v>
       </c>
       <c r="J8">
+        <v>93.88086076835363</v>
+      </c>
+      <c r="K8">
         <v>93.88086076835364</v>
       </c>
-      <c r="K8">
-        <v>93.88086076835361</v>
-      </c>
       <c r="L8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="M8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="N8">
         <v>93.88086076835364</v>
       </c>
       <c r="O8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="P8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="Q8">
         <v>93.88086076835364</v>
       </c>
       <c r="R8">
-        <v>93.88086076835364</v>
+        <v>93.88086076835363</v>
       </c>
       <c r="S8">
         <v>93.88086076835363</v>
       </c>
       <c r="T8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="U8">
-        <v>71.41174531467858</v>
+        <v>71.41174531467857</v>
       </c>
       <c r="V8">
         <v>93.88086076835364</v>
       </c>
       <c r="W8">
-        <v>93.88086076835361</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="X8">
-        <v>93.88086076835363</v>
+        <v>93.88086076835364</v>
       </c>
       <c r="Y8">
         <v>93.88086076835364</v>
@@ -8784,58 +8677,58 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>80.45896164482446</v>
+        <v>80.45896164482447</v>
       </c>
       <c r="D9">
         <v>50.0</v>
       </c>
       <c r="E9">
-        <v>80.45896164482446</v>
+        <v>80.45896164482447</v>
       </c>
       <c r="F9">
-        <v>50.0</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="G9">
-        <v>50.0</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="H9">
         <v>50.0</v>
       </c>
       <c r="I9">
-        <v>80.45896164482446</v>
+        <v>80.45896164482447</v>
       </c>
       <c r="J9">
         <v>112.42206954371431</v>
       </c>
       <c r="K9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="L9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="M9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="N9">
         <v>112.42206954371431</v>
       </c>
       <c r="O9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="P9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="Q9">
         <v>112.42206954371431</v>
       </c>
       <c r="R9">
+        <v>112.42206954371433</v>
+      </c>
+      <c r="S9">
+        <v>112.42206954371433</v>
+      </c>
+      <c r="T9">
         <v>112.42206954371431</v>
-      </c>
-      <c r="S9">
-        <v>112.42206954371431</v>
-      </c>
-      <c r="T9">
-        <v>112.4220695437143</v>
       </c>
       <c r="U9">
         <v>80.45896164482446</v>
@@ -8844,7 +8737,7 @@
         <v>112.42206954371431</v>
       </c>
       <c r="W9">
-        <v>112.4220695437143</v>
+        <v>112.42206954371431</v>
       </c>
       <c r="X9">
         <v>112.42206954371431</v>
@@ -8873,10 +8766,10 @@
         <v>80.0</v>
       </c>
       <c r="F10">
-        <v>50.0</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="G10">
-        <v>50.0</v>
+        <v>50.00000000000002</v>
       </c>
       <c r="H10">
         <v>50.0</v>
@@ -8888,22 +8781,22 @@
         <v>111.48148148148148</v>
       </c>
       <c r="K10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="L10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="M10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="N10">
         <v>111.48148148148148</v>
       </c>
       <c r="O10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="P10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="Q10">
         <v>111.48148148148148</v>
@@ -8915,7 +8808,7 @@
         <v>111.48148148148148</v>
       </c>
       <c r="T10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="U10">
         <v>80.0</v>
@@ -8924,7 +8817,7 @@
         <v>111.48148148148148</v>
       </c>
       <c r="W10">
-        <v>111.48148148148147</v>
+        <v>111.48148148148148</v>
       </c>
       <c r="X10">
         <v>111.48148148148148</v>
@@ -8944,25 +8837,25 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>66.26506024096386</v>
+        <v>66.26506024096385</v>
       </c>
       <c r="D11">
         <v>50.0</v>
       </c>
       <c r="E11">
-        <v>66.26506024096386</v>
+        <v>66.26506024096385</v>
       </c>
       <c r="F11">
-        <v>50.0</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="G11">
-        <v>50.0</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="H11">
         <v>50.0</v>
       </c>
       <c r="I11">
-        <v>66.26506024096386</v>
+        <v>66.26506024096385</v>
       </c>
       <c r="J11">
         <v>83.33333333333333</v>
@@ -9024,46 +8917,46 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>91.08404335372745</v>
+        <v>91.08404335372747</v>
       </c>
       <c r="D12">
         <v>49.99999999999999</v>
       </c>
       <c r="E12">
-        <v>91.08404335372745</v>
+        <v>91.08404335372747</v>
       </c>
       <c r="F12">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="G12">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="H12">
         <v>49.99999999999999</v>
       </c>
       <c r="I12">
-        <v>91.08404335372745</v>
+        <v>91.08404335372747</v>
       </c>
       <c r="J12">
         <v>134.19692835455257</v>
       </c>
       <c r="K12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="L12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="M12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="N12">
         <v>134.19692835455257</v>
       </c>
       <c r="O12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="P12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="Q12">
         <v>134.19692835455257</v>
@@ -9075,7 +8968,7 @@
         <v>134.19692835455257</v>
       </c>
       <c r="T12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="U12">
         <v>91.08404335372745</v>
@@ -9084,7 +8977,7 @@
         <v>134.19692835455257</v>
       </c>
       <c r="W12">
-        <v>134.19692835455254</v>
+        <v>134.19692835455257</v>
       </c>
       <c r="X12">
         <v>134.19692835455257</v>
